--- a/RICOH Aficio SP 5200DN/2024/04-2024/Registro Impressão 25-04-2024 - Expedição.xlsx
+++ b/RICOH Aficio SP 5200DN/2024/04-2024/Registro Impressão 25-04-2024 - Expedição.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.100.210\alegria\ERICK\Registro Impressões\Impressora - Expedição\04-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84EA06B9-1AA2-4D9E-BEDF-067452923198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6230F3A6-D740-40A3-B905-1292E7B7D4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="18000" windowHeight="12645" xr2:uid="{1C3813F7-71ED-40A3-9BEB-291F938A7D5E}"/>
+    <workbookView xWindow="4590" yWindow="4590" windowWidth="18000" windowHeight="12645" xr2:uid="{1C3813F7-71ED-40A3-9BEB-291F938A7D5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -368,6 +368,12 @@
   </si>
   <si>
     <t>Apr 25, 2024 5:12:59 PM</t>
+  </si>
+  <si>
+    <t>Apr 25, 2024 5:37:42 PM</t>
+  </si>
+  <si>
+    <t>Apr 25, 2024 5:32:51 PM</t>
   </si>
 </sst>
 </file>
@@ -736,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187DEDF8-AA69-47FC-96F3-8C2790BAD2E2}">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,11 +814,11 @@
       </c>
       <c r="H2" s="2">
         <f>COUNT(G2:G101)</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I2" s="2">
         <f>SUM(G2:G102)</f>
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2905,6 +2911,52 @@
         <v>110</v>
       </c>
       <c r="G93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>112</v>
+      </c>
+      <c r="G94" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>111</v>
+      </c>
+      <c r="G95" s="2">
         <v>1</v>
       </c>
     </row>

--- a/RICOH Aficio SP 5200DN/2024/04-2024/Registro Impressão 25-04-2024 - Expedição.xlsx
+++ b/RICOH Aficio SP 5200DN/2024/04-2024/Registro Impressão 25-04-2024 - Expedição.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.100.210\alegria\ERICK\Registro Impressões\Impressora - Expedição\04-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6230F3A6-D740-40A3-B905-1292E7B7D4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C976126B-DD64-4AB1-B629-59A487252FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="4590" windowWidth="18000" windowHeight="12645" xr2:uid="{1C3813F7-71ED-40A3-9BEB-291F938A7D5E}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="12645" xr2:uid="{1C3813F7-71ED-40A3-9BEB-291F938A7D5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>Apr 25, 2024 5:32:51 PM</t>
+  </si>
+  <si>
+    <t>Apr 25, 2024 5:45:35 PM</t>
   </si>
 </sst>
 </file>
@@ -742,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187DEDF8-AA69-47FC-96F3-8C2790BAD2E2}">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,11 +817,11 @@
       </c>
       <c r="H2" s="2">
         <f>COUNT(G2:G101)</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I2" s="2">
         <f>SUM(G2:G102)</f>
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2958,6 +2961,29 @@
       </c>
       <c r="G95" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>113</v>
+      </c>
+      <c r="G96" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
